--- a/story/Activity Story 活动剧情/act13d5 Maria Nearl 玛莉娅·临光 マリア・ニアール/level_act13d5_st03.xlsx
+++ b/story/Activity Story 活动剧情/act13d5 Maria Nearl 玛莉娅·临光 マリア・ニアール/level_act13d5_st03.xlsx
@@ -2280,7 +2280,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="플래티넘"]  …...누구야 당신? 내가 연락한 건 이사였는데……
+    <t xml:space="preserve">[name="플래티넘"]  ……누구야 당신? 내가 연락한 건 이사였는데……
 </t>
   </si>
   <si>
@@ -2460,7 +2460,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="호탕한 여성의 목소리"]  둘째, 빛의 기사와 관련 사건에 대해 언론 플레이를 하세요. 스톱로스가 안 생기게요. 우리가 원하는 건 그걸 기반으로 하는 '수익'이니까.
+    <t xml:space="preserve">[name="호탕한 여성의 목소리"]  둘째, 빛의 기사와 관련 사건에 대해 언론 플레이를 하세요. 스탑로스가 안 생기게요. 우리가 원하는 건 그걸 기반으로 하는 '수익'이니까.
 </t>
   </si>
   <si>
@@ -2596,7 +2596,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="불꽃 꼬리의 기사"]  ……그 사람들…... 이젠 숨기려고도 하지 않는구나.
+    <t xml:space="preserve">[name="불꽃 꼬리의 기사"]  ……그 사람들…… 이젠 숨기려고도 하지 않는구나.
 </t>
   </si>
   <si>
@@ -2712,11 +2712,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="마리아"]  헤헷…… 나, 이제 언니보다 키도 더 크다?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="마가렛"]  많이 애썼구나, 진짜로, 아까 아레나에선 너랑 제대로 얘기 나눌 기회도 없었는데…... 네가 많이 그리웠다, 마리아.
+    <t xml:space="preserve">[name="마리아"]  헤헷…… 나, 이제 언니보다 키가 작지도 않아.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="마가렛"]  많이 애썼구나, 진짜로, 아까 아레나에선 너랑 제대로 얘기 나눌 기회도 없었는데…… 네가 많이 그리웠다, 마리아.
 </t>
   </si>
   <si>
@@ -2772,7 +2772,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="마가렛"]  마리아, 너……. 훗, 정말 많이 컸구나.
+    <t xml:space="preserve">[name="마가렛"]  마리아, 너…… 훗, 정말 많이 컸구나.
 </t>
   </si>
   <si>

--- a/story/Activity Story 活动剧情/act13d5 Maria Nearl 玛莉娅·临光 マリア・ニアール/level_act13d5_st03.xlsx
+++ b/story/Activity Story 活动剧情/act13d5 Maria Nearl 玛莉娅·临光 マリア・ニアール/level_act13d5_st03.xlsx
@@ -1548,7 +1548,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="??? "]  What I am saying next will be between the “Armorless Union”, and nothing to do with the “directors”.
+    <t xml:space="preserve">[name="??? "]  What I am saying next will be between the 'Armorless Union', and nothing to do with the 'directors'.
 </t>
   </si>
   <si>
@@ -1600,7 +1600,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="??? "]  The Confessarius and the Radiant Knight also belong to another “company”. Will this matter be so simple...? I’m not sure. 
+    <t xml:space="preserve">[name="??? "]  The Confessarius and the Radiant Knight also belong to another 'company'. Will this matter be so simple...? I’m not sure. 
 </t>
   </si>
   <si>
@@ -1708,7 +1708,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Bold Female Voice"]  Secondly, guide the public opinion regarding the Radiant Knight and related matters. We are not asking for “damage control”, what we want are “benefits” on top of that.
+    <t xml:space="preserve">[name="Bold Female Voice"]  Secondly, guide the public opinion regarding the Radiant Knight and related matters. We are not asking for 'damage control', what we want are 'benefits' on top of that.
 </t>
   </si>
   <si>
@@ -1820,7 +1820,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Platinum"]  Pay close attention to the “Pinus Sylvestris Knightclub” then. They’re more than just competition knights. They openly... oppose the Armorless Union.
+    <t xml:space="preserve">[name="Platinum"]  Pay close attention to the 'Pinus Sylvestris Knightclub' then. They’re more than just competition knights. They openly... oppose the Armorless Union.
 </t>
   </si>
   <si>
@@ -1868,7 +1868,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ashlock Knight"]  “That’s ugly.” 
+    <t xml:space="preserve">[name="Ashlock Knight"]  'That’s ugly.' 
 </t>
   </si>
   <si>
@@ -2060,7 +2060,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Młynar"]  Do you know how much your father and grandfather sacrificed to “send you out”?
+    <t xml:space="preserve">[name="Młynar"]  Do you know how much your father and grandfather sacrificed to 'send you out'?
 </t>
   </si>
   <si>
@@ -2188,7 +2188,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Młynar"]  If you insist on being so stubborn, I have no choice but to to teach you how to “give up” the hard way. To fall by my blade is far better than falling into the shadow of the Armorless Union. 
+    <t xml:space="preserve">[name="Młynar"]  If you insist on being so stubborn, I have no choice but to to teach you how to 'give up' the hard way. To fall by my blade is far better than falling into the shadow of the Armorless Union. 
 </t>
   </si>
   <si>

--- a/story/Activity Story 活动剧情/act13d5 Maria Nearl 玛莉娅·临光 マリア・ニアール/level_act13d5_st03.xlsx
+++ b/story/Activity Story 活动剧情/act13d5 Maria Nearl 玛莉娅·临光 マリア・ニアール/level_act13d5_st03.xlsx
@@ -1524,7 +1524,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Platinum"]  It’s me. The spokesman incident is over——
+    <t xml:space="preserve">[name="Platinum"]  It's me. The spokesman incident is over——
 </t>
   </si>
   <si>
@@ -1532,15 +1532,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Platinum"]  ...Who are you? I’m looking for the director... 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="??? "]  Doesn’t matter. You should have received the authorization code for this terminal.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Platinum"]  Since you know about this channel, you aren’t one of the two Lazurites. So...
+    <t xml:space="preserve">[name="Platinum"]  ...Who are you? I'm looking for the director... 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="??? "]  Doesn't matter. You should have received the authorization code for this terminal.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Platinum"]  Since you know about this channel, you aren't one of the two Lazurites. So...
 </t>
   </si>
   <si>
@@ -1564,7 +1564,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="??? "]  The Lazurite will take full responsibility for this matter, don’t trouble yourself.
+    <t xml:space="preserve">[name="??? "]  The Lazurite will take full responsibility for this matter, don't trouble yourself.
 </t>
   </si>
   <si>
@@ -1576,15 +1576,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Platinum"]  The Radiant Knight... that’s a pain.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Platinum"]  ——So they’ve got an even bigger pain over there?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="??? "]  Still unclear. The ripples from a single stone spread far. The return of the Radiant Knight has brought us a lot of trouble... In fact, we’re devoting too much of our attention on her. 
+    <t xml:space="preserve">[name="Platinum"]  The Radiant Knight... that's a pain.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Platinum"]  ——So they've got an even bigger pain over there?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="??? "]  Still unclear. The ripples from a single stone spread far. The return of the Radiant Knight has brought us a lot of trouble... In fact, we're devoting too much of our attention on her. 
 </t>
   </si>
   <si>
@@ -1600,7 +1600,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="??? "]  The Confessarius and the Radiant Knight also belong to another 'company'. Will this matter be so simple...? I’m not sure. 
+    <t xml:space="preserve">[name="??? "]  The Confessarius and the Radiant Knight also belong to another 'company.' Will this matter be so simple...? I'm not sure. 
 </t>
   </si>
   <si>
@@ -1608,15 +1608,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="??? "]  Just handle your own tasks properly and don’t mess up like before.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="??? "]  We’ll be busier.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Corporate Employee"]  Ahh... It’s the phone again... Are they looking for Mr. Czarny?
+    <t xml:space="preserve">[name="??? "]  Just handle your own tasks properly and don't mess up like before.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="??? "]  We'll be busier.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Corporate Employee"]  Ahh... It's the phone again... Are they looking for Mr. Czarny?
 </t>
   </si>
   <si>
@@ -1644,7 +1644,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Deep Male Voice"]  I dialed the spokesman’s number, and you answered.
+    <t xml:space="preserve">[name="Deep Male Voice"]  I dialed the spokesman's number, and you answered.
 </t>
   </si>
   <si>
@@ -1652,7 +1652,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Corporate Employee"]  Huh? Wh-what? I don’t understand——  
+    <t xml:space="preserve">[name="Corporate Employee"]  Huh? Wh-what? I don't understand——  
 </t>
   </si>
   <si>
@@ -1712,11 +1712,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Bold Female Voice"]  Thirdly, some contacts from the Armorless Union will be arriving at your location within three minutes. Supervise them as they carry out their duties. If there are any issues, report directly to the General Chamber of Commerce’s Board of Directors.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Corporate Employee"]  Wait...! I don’t want to be...! 
+    <t xml:space="preserve">[name="Bold Female Voice"]  Thirdly, some contacts from the Armorless Union will be arriving at your location within three minutes. Supervise them as they carry out their duties. If there are any issues, report directly to the General Chamber of Commerce's Board of Directors.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Corporate Employee"]  Wait...! I don't want to be...! 
 </t>
   </si>
   <si>
@@ -1724,7 +1724,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Corporate Employee"]  I-I don’t think...
+    <t xml:space="preserve">[name="Corporate Employee"]  I-I don't think...
 </t>
   </si>
   <si>
@@ -1744,19 +1744,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Platinum"]  I heard the good news. Czarny’s authority has been completely transferred to you, Spokesman... Markowitz, right?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Platinum"]  What do we do next? You might need a minute. I don’t mind taking a break. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Spokesman Markowitz"]  I-I don’t understand. Why me...?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Spokesman Markowitz"]  Wait, wait. Aren’t you the same, Platinum? Why did you allow yourself to be pushed into this position? What should I do...? 
+    <t xml:space="preserve">[name="Platinum"]  I heard the good news. Czarny's authority has been completely transferred to you, Spokesman... Markowitz, right?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Platinum"]  What do we do next? You might need a minute. I don't mind taking a break. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Spokesman Markowitz"]  I-I don't understand. Why me...?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Spokesman Markowitz"]  Wait, wait. Aren't you the same, Platinum? Why did you allow yourself to be pushed into this position? What should I do...? 
 </t>
   </si>
   <si>
@@ -1764,11 +1764,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Platinum"]  Don’t think too much when you’re in Kazimierz.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Spokesman Markowitz"]  But... Just look at me... I can’t even afford a decent suit. I...
+    <t xml:space="preserve">[name="Platinum"]  Don't think too much when you're in Kazimierz.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Spokesman Markowitz"]  But... Just look at me... I can't even afford a decent suit. I...
 </t>
   </si>
   <si>
@@ -1784,7 +1784,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Platinum"]  I only know what I’m doing.
+    <t xml:space="preserve">[name="Platinum"]  I only know what I'm doing.
 </t>
   </si>
   <si>
@@ -1820,7 +1820,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Platinum"]  Pay close attention to the 'Pinus Sylvestris Knightclub' then. They’re more than just competition knights. They openly... oppose the Armorless Union.
+    <t xml:space="preserve">[name="Platinum"]  Pay close attention to the 'Pinus Sylvestris Knightclub' then. They're more than just competition knights. They openly... oppose the Armorless Union.
 </t>
   </si>
   <si>
@@ -1848,35 +1848,35 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ashlock Knight"]  Maybe we gave them more credit than they deserved. These things happen in every season of the Major——They don’t care.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Flametail Knight"]  What they care about doesn’t matter. I never expected them to understand, but to think they don’t even want to keep up appearances...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Flametail Knight"]  What’s important is that in Kazimierz, no one cares.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ashlock Knight"]  They’re telling people we’re out of competition for a while because of a training accident...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Flametail Knight"]  ...That’s ugly.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ashlock Knight"]  'That’s ugly.' 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Flametail Knight"]  ...Pfft. Hahahaha. Hey, what the hell’s up with that? Isn’t that totally good for us?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Flametail Knight"]  If they had gone through the National Council instead of scurrying around in the dark, we’d really be in trouble.
+    <t xml:space="preserve">[name="Ashlock Knight"]  Maybe we gave them more credit than they deserved. These things happen in every season of the Major——They don't care.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Flametail Knight"]  What they care about doesn't matter. I never expected them to understand, but to think they don't even want to keep up appearances...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Flametail Knight"]  What's important is that in Kazimierz, no one cares.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ashlock Knight"]  They're telling people we're out of competition for a while because of a training accident...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Flametail Knight"]  ...That's ugly.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ashlock Knight"]  'That's ugly.' 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Flametail Knight"]  ...Pfft. Hahahaha. Hey, what the hell's up with that? Isn't that totally good for us?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Flametail Knight"]  If they had gone through the National Council instead of scurrying around in the dark, we'd really be in trouble.
 </t>
   </si>
   <si>
@@ -1884,11 +1884,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Flametail Knight"]  Mhmm... Our opponents couldn’t wait any longer and acted first, but ended up giving us the win instead. How could I not be happy?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Flametail Knight"]  When those two finish their jobs, we’ll finally get to the main point.
+    <t xml:space="preserve">[name="Flametail Knight"]  Mhmm... Our opponents couldn't wait any longer and acted first, but ended up giving us the win instead. How could I not be happy?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Flametail Knight"]  When those two finish their jobs, we'll finally get to the main point.
 </t>
   </si>
   <si>
@@ -1896,7 +1896,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Flametail Knight"]  What? Didn’t you get your fill in the arena? 
+    <t xml:space="preserve">[name="Flametail Knight"]  What? Didn't you get your fill in the arena? 
 </t>
   </si>
   <si>
@@ -1908,11 +1908,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ashlock Knight"]  They don’t have a penny’s worth of dignity or faith. The knight nobles are total sellouts now.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Flametail Knight"]  Don’t get yourself worked up. This topic always does that to you. Don’t worry, they’ll get what’s coming to them.
+    <t xml:space="preserve">[name="Ashlock Knight"]  They don't have a penny's worth of dignity or faith. The knight nobles are total sellouts now.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Flametail Knight"]  Don't get yourself worked up. This topic always does that to you. Don't worry, they'll get what's coming to them.
 </t>
   </si>
   <si>
@@ -1924,11 +1924,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Flametail Knight"]  We’ll expose them out in the open for all to see, yeah?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Maria"]  Hey Margaret, how long has it been since you’ve been home?
+    <t xml:space="preserve">[name="Flametail Knight"]  We'll expose them out in the open for all to see, yeah?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Maria"]  Hey Margaret, how long has it been since you've been home?
 </t>
   </si>
   <si>
@@ -1936,11 +1936,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Maria"]  B-but, it’s fine! At least—— 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Margaret"]  Maria, just seeing you all makes me feel like I’ve returned home.
+    <t xml:space="preserve">[name="Maria"]  B-but, it's fine! At least—— 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Margaret"]  Maria, just seeing you all makes me feel like I've returned home.
 </t>
   </si>
   <si>
@@ -1956,23 +1956,23 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Margaret"]  Yeah, it’s a nice fit. You’ve really grown up.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Maria"]  Hehe... I’m as tall as you now.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Margaret"]  You’ve worked hard, truly. I wasn’t able to talk with you properly in the arena earlier...... I’ve really missed you, Maria. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Maria"]  Ehh... Sis, you’re making me embarrassed...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Margaret"]  You’ve fought alone until now, but you survived, you’ve persisted.
+    <t xml:space="preserve">[name="Margaret"]  Yeah, it's a nice fit. You've really grown up.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Maria"]  Hehe... I'm as tall as you now.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Margaret"]  You've worked hard, truly. I wasn't able to talk with you properly in the arena earlier...... I've really missed you, Maria. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Maria"]  Ehh... Sis, you're making me embarrassed...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Margaret"]  You've fought alone until now, but you survived, you've persisted.
 </t>
   </si>
   <si>
@@ -1984,7 +1984,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Maria"]  There’s something you absolutely have to do, that you’d never back down from, right?
+    <t xml:space="preserve">[name="Maria"]  There's something you absolutely have to do, that you'd never back down from, right?
 </t>
   </si>
   <si>
@@ -1992,7 +1992,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Maria"]  Then you didn’t do anything wrong!
+    <t xml:space="preserve">[name="Maria"]  Then you didn't do anything wrong!
 </t>
   </si>
   <si>
@@ -2000,11 +2000,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Maria"]  But I’ve started to understand. At least, I can think about what Aunt Zofia has always said... I can think about what a knight truly is.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Maria"]  Even though I still couldn’t become like you... I’ve been able to get where I am today, with everyone’s help!
+    <t xml:space="preserve">[name="Maria"]  But I've started to understand. At least, I can think about what Aunt Zofia has always said... I can think about what a knight truly is.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Maria"]  Even though I still couldn't become like you... I've been able to get where I am today, with everyone's help!
 </t>
   </si>
   <si>
@@ -2012,15 +2012,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Maria"]  B-But, Margaret, you can’t ever leave again, not like how you left six years ago...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Maria"]  I’ll follow you this time, no matter what happens to us in the end... I, I believe in you.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Margaret"]  Maria, you... Heh, you’ve really grown up.
+    <t xml:space="preserve">[name="Maria"]  B-But, Margaret, you can't ever leave again, not like how you left six years ago...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Maria"]  I'll follow you this time, no matter what happens to us in the end... I, I believe in you.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Margaret"]  Maria, you... Heh, you've really grown up.
 </t>
   </si>
   <si>
@@ -2048,7 +2048,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Młynar"]  Don’t you know what it means for you to appear here?
+    <t xml:space="preserve">[name="Młynar"]  Don't you know what it means for you to appear here?
 </t>
   </si>
   <si>
@@ -2064,7 +2064,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Młynar"]  Yet you dare to appear here so brazenly... Do you think that the Association and the corporations aren’t watching your every step?
+    <t xml:space="preserve">[name="Młynar"]  Yet you dare to appear here so brazenly... Do you think that the Association and the corporations aren't watching your every step?
 </t>
   </si>
   <si>
@@ -2092,7 +2092,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Margaret"]  —Yet I’m still here. We’re all still here.
+    <t xml:space="preserve">[name="Margaret"]  —Yet I'm still here. We're all still here.
 </t>
   </si>
   <si>
@@ -2100,7 +2100,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Młynar"]  Don’t be greedy... Margaret.
+    <t xml:space="preserve">[name="Młynar"]  Don't be greedy... Margaret.
 </t>
   </si>
   <si>
@@ -2108,7 +2108,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Młynar"]  You’re wasting my time.
+    <t xml:space="preserve">[name="Młynar"]  You're wasting my time.
 </t>
   </si>
   <si>
@@ -2120,11 +2120,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Młynar"]  In the time I’ve spent talking to you, a mountain of documents has piled up waiting for me to handle. Don’t interrupt my work...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Młynar"]  Leave Kazimierz before things turn worse. You’ve made a life for yourself elsewhere, just don’t come back anymore.
+    <t xml:space="preserve">[name="Młynar"]  In the time I've spent talking to you, a mountain of documents has piled up waiting for me to handle. Don't interrupt my work...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Młynar"]  Leave Kazimierz before things turn worse. You've made a life for yourself elsewhere, just don't come back anymore.
 </t>
   </si>
   <si>
@@ -2152,7 +2152,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Młynar"]  You know nothing of what I’ve seen, what I’ve done. Yet you still hold on to your idealistic thoughts...
+    <t xml:space="preserve">[name="Młynar"]  You know nothing of what I've seen, what I've done. Yet you still hold on to your idealistic thoughts...
 </t>
   </si>
   <si>
@@ -2160,7 +2160,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Margaret"]  I’m merely choosing to continue believing in my faith, and to fight for it.
+    <t xml:space="preserve">[name="Margaret"]  I'm merely choosing to continue believing in my faith, and to fight for it.
 </t>
   </si>
   <si>
@@ -2168,7 +2168,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Margaret"]  Of course. Of that, I’m very clear.
+    <t xml:space="preserve">[name="Margaret"]  Of course. Of that, I'm very clear.
 </t>
   </si>
   <si>
@@ -2200,15 +2200,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Senomy"]  If the young mistress of the Nearl family were to have an accident as well, don’t even bother calling this campaign knight a knight anymore! I’ll go flip the National Council’s goddamned table myself! 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Senomy"]  ——That’s what the old man said.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="??? "]  ...Senomy, there’s no need to mimic him so convincingly...
+    <t xml:space="preserve">[name="Senomy"]  If the young mistress of the Nearl family were to have an accident as well, don't even bother calling this campaign knight a knight anymore! I'll go flip the National Council's goddamned table myself! 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Senomy"]  ——That's what the old man said.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="??? "]  ...Senomy, there's no need to mimic him so convincingly...
 </t>
   </si>
   <si>
@@ -2216,11 +2216,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="??? "]  You don’t need to listen to everything he says.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Senomy"]  He even said that if the Grand Knight didn’t agree, he’d go greet the Radiant Knight himself, even if he had to hobble all the way there.
+    <t xml:space="preserve">[name="??? "]  You don't need to listen to everything he says.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Senomy"]  He even said that if the Grand Knight didn't agree, he'd go greet the Radiant Knight himself, even if he had to hobble all the way there.
 </t>
   </si>
   <si>
@@ -2232,15 +2232,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="??? "]  Alright, alright... I know how unhappy he is. He hasn’t changed at all, still causing a ruckus in the Court Sprawiedliwi Kazimierz every day over what few accomplishments he has...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="??? "]  Don’t forget he is still an offender.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Senomy"]  But the National Council, totally corrupted by the General Chamber of Commerce, has no right to convict my old man. They don’t representing the citizens or the law at all. They’re just representing themselves and the merchants behind them. 
+    <t xml:space="preserve">[name="??? "]  Alright, alright... I know how unhappy he is. He hasn't changed at all, still causing a ruckus in the Court Sprawiedliwi Kazimierz every day over what few accomplishments he has...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="??? "]  Don't forget he is still an offender.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Senomy"]  But the National Council, totally corrupted by the General Chamber of Commerce, has no right to convict my old man. They don't representing the citizens or the law at all. They're just representing themselves and the merchants behind them. 
 </t>
   </si>
   <si>
@@ -2260,7 +2260,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Senomy"]  Ah, there’s one more thing.
+    <t xml:space="preserve">[name="Senomy"]  Ah, there's one more thing.
 </t>
   </si>
   <si>

--- a/story/Activity Story 活动剧情/act13d5 Maria Nearl 玛莉娅·临光 マリア・ニアール/level_act13d5_st03.xlsx
+++ b/story/Activity Story 活动剧情/act13d5 Maria Nearl 玛莉娅·临光 マリア・ニアール/level_act13d5_st03.xlsx
@@ -2572,7 +2572,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="플래티넘"]  그럼 '파인트리 기사단'을 조심해. 단순한 스포츠 기사가 아니야. 놈들은 공개적으로 아머레스 유니온에…… 대항하고 있어.
+    <t xml:space="preserve">[name="플래티넘"]  그럼 '파이너스 실베스트리스 기사단'을 조심해. 단순한 스포츠 기사가 아니야. 놈들은 공개적으로 아머레스 유니온에…… 대항하고 있어.
 </t>
   </si>
   <si>
